--- a/workloads.xlsx
+++ b/workloads.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23516"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="526" documentId="11_8543C36030233A30E40757F649B3812A2C73EDFA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D69D904A-B45B-4BF4-A062-F33D3FF35F78}"/>
+  <xr:revisionPtr revIDLastSave="548" documentId="11_8543C36030233A30E40757F649B3812A2C73EDFA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{898642EE-75FB-4035-A633-5DB91E9146D1}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>No.</t>
   </si>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Implement the Banking Application </t>
   </si>
   <si>
-    <t>3.1 Backend</t>
+    <t>4.1 Backend</t>
   </si>
   <si>
     <t>Yonas + Murad</t>
@@ -109,74 +109,58 @@
     <t>Yonas do the backend, Murad do the observer email sender</t>
   </si>
   <si>
-    <t>3.2 Fronend</t>
+    <t>4.2 Fronend</t>
+  </si>
+  <si>
+    <t>Yonas + Nhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhan: integrate generate report
+Yonas: do the rest of things
+</t>
   </si>
   <si>
     <t>Implement the Credit Card Application</t>
   </si>
   <si>
-    <t>4.1 Backend</t>
-  </si>
-  <si>
-    <t>Yonas + Nhan</t>
-  </si>
-  <si>
-    <t>4.2 Frontend</t>
+    <t>5.1 Backend</t>
+  </si>
+  <si>
+    <t>5.2 Frontend</t>
   </si>
   <si>
     <t>Sequence diagrams</t>
   </si>
   <si>
-    <t>7.1 Bank System</t>
+    <t>6.1 Bank System</t>
   </si>
   <si>
     <t>Eden</t>
   </si>
   <si>
-    <t>7.2 CreditCard System</t>
+    <t>6.2 CreditCard System</t>
   </si>
   <si>
     <t>Henock</t>
   </si>
   <si>
-    <t>Extra Credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1 Add the ability to have general rules associated with various account or transaction objects. Use the rules
-pattern discussed in class. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are several other good references, do some net-searching to research it. </t>
-  </si>
-  <si>
-    <t>8.2 Migrate the framework from a white-box to a black/gray-box architecture. 
-a) first add several internal objects which would be typical elements to compose an application
-b) Then provide external hook-methods to compose from them</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3 Add persistence for the database. You should use a façade pattern to hide the details of the persistence
-mechanism. </t>
-  </si>
-  <si>
-    <t>8.4 Add a third application from the framework. Consider what candidate applications could be a good match.
-Consider a retail application (e.g. bookstore). 
-If the framework needs significant extensions to do this,
-consider a second framework, a retail management framework.</t>
-  </si>
-  <si>
-    <t>a) How should you create this from the first framework? Are they co-frameworks, or does the retail framework encapsulate the billing framework?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5 Add a visual composition method to create applications from the framework. [Very advanced!]
-a) Design such an application, it's components, and use cases, and architecture (and patterns used).
-b) Implement it. </t>
+    <t>Integration and merge code</t>
+  </si>
+  <si>
+    <t>All system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhan </t>
+  </si>
+  <si>
+    <t>Everyone are not familiar with github, then I help them to merge the code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,14 +184,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +195,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -367,9 +339,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -391,24 +360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -418,56 +369,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -481,35 +435,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,20 +776,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F579"/>
+  <dimension ref="A1:F574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="25" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="22" customWidth="1"/>
     <col min="6" max="6" width="51.140625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -847,7 +798,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -863,2078 +814,2035 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="38" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="54">
+    <row r="2" spans="1:6" s="28" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" spans="1:6" s="38" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="42" t="s">
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" s="28" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="41"/>
-    </row>
-    <row r="4" spans="1:6" s="38" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="42" t="s">
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" s="28" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" spans="1:6" s="38" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="42" t="s">
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" s="28" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="41"/>
-    </row>
-    <row r="6" spans="1:6" s="38" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="42" t="s">
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" s="28" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="41"/>
-    </row>
-    <row r="7" spans="1:6" s="38" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="42" t="s">
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" s="28" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="1:6" s="38" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="42" t="s">
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" s="28" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A9" s="23">
+      <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="49.5" customHeight="1">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A11" s="43">
+      <c r="A11" s="37">
         <v>4</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46"/>
+    <row r="12" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="D12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="26" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A13" s="43">
+      <c r="A13" s="37">
         <v>5</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A14" s="44"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A15" s="43">
+      <c r="A15" s="37">
         <v>6</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="37"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="31.5" customHeight="1">
       <c r="A16" s="44"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="60">
-      <c r="A17" s="51">
-        <v>8</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="17" t="s">
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="42">
+        <v>7</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="18" t="s">
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="105">
-      <c r="A18" s="52"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="17" t="s">
+      <c r="D17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" ht="60">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="17" t="s">
+      <c r="E17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" ht="135">
-      <c r="A20" s="52"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="75">
-      <c r="A21" s="53"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="22"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="15"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="15"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="15"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="15"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="15"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="15"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="15"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="15"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="15"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="15"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="15"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="15"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="15"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="15"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="15"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="E38" s="29"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="E39" s="29"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="E40" s="29"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="E41" s="29"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="E42" s="29"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="E44" s="29"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="E45" s="29"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="E46" s="29"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="E47" s="29"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="E48" s="29"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" s="20"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" s="20"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" s="20"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="20"/>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" s="20"/>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39" s="20"/>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="E41" s="20"/>
+    </row>
+    <row r="42" spans="5:6">
+      <c r="E42" s="20"/>
+    </row>
+    <row r="43" spans="5:6">
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="5:6">
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="5:6">
+      <c r="E45" s="20"/>
+    </row>
+    <row r="46" spans="5:6">
+      <c r="E46" s="20"/>
+    </row>
+    <row r="47" spans="5:6">
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="5:6">
+      <c r="E48" s="20"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="29"/>
+      <c r="E49" s="20"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="29"/>
+      <c r="E50" s="20"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="29"/>
+      <c r="E51" s="20"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="29"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="29"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="29"/>
+      <c r="E54" s="20"/>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="29"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="29"/>
+      <c r="E56" s="20"/>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="29"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="29"/>
+      <c r="E58" s="20"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="29"/>
+      <c r="E59" s="20"/>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="29"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="29"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="29"/>
+      <c r="E62" s="20"/>
     </row>
     <row r="63" spans="5:5">
-      <c r="E63" s="29"/>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" spans="5:5">
-      <c r="E64" s="29"/>
+      <c r="E64" s="20"/>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="29"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="29"/>
+      <c r="E66" s="20"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="29"/>
+      <c r="E67" s="20"/>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="29"/>
+      <c r="E68" s="20"/>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="29"/>
+      <c r="E69" s="20"/>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="29"/>
+      <c r="E70" s="20"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="29"/>
+      <c r="E71" s="20"/>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="29"/>
+      <c r="E72" s="20"/>
     </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="29"/>
+      <c r="E73" s="20"/>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="29"/>
+      <c r="E74" s="20"/>
     </row>
     <row r="75" spans="5:5">
-      <c r="E75" s="29"/>
+      <c r="E75" s="20"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="29"/>
+      <c r="E76" s="20"/>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="29"/>
+      <c r="E77" s="20"/>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="29"/>
+      <c r="E78" s="20"/>
     </row>
     <row r="79" spans="5:5">
-      <c r="E79" s="29"/>
+      <c r="E79" s="20"/>
     </row>
     <row r="80" spans="5:5">
-      <c r="E80" s="29"/>
+      <c r="E80" s="20"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="29"/>
+      <c r="E81" s="20"/>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="29"/>
+      <c r="E82" s="20"/>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="29"/>
+      <c r="E83" s="20"/>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="29"/>
+      <c r="E84" s="20"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="29"/>
+      <c r="E85" s="20"/>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="29"/>
+      <c r="E86" s="20"/>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="29"/>
+      <c r="E87" s="20"/>
     </row>
     <row r="88" spans="5:5">
-      <c r="E88" s="29"/>
+      <c r="E88" s="20"/>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="29"/>
+      <c r="E89" s="20"/>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="29"/>
+      <c r="E90" s="20"/>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="29"/>
+      <c r="E91" s="20"/>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="29"/>
+      <c r="E92" s="20"/>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="29"/>
+      <c r="E93" s="20"/>
     </row>
     <row r="94" spans="5:5">
-      <c r="E94" s="29"/>
+      <c r="E94" s="20"/>
     </row>
     <row r="95" spans="5:5">
-      <c r="E95" s="29"/>
+      <c r="E95" s="20"/>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="29"/>
+      <c r="E96" s="20"/>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="29"/>
+      <c r="E97" s="20"/>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="29"/>
+      <c r="E98" s="20"/>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="29"/>
+      <c r="E99" s="20"/>
     </row>
     <row r="100" spans="5:5">
-      <c r="E100" s="29"/>
+      <c r="E100" s="20"/>
     </row>
     <row r="101" spans="5:5">
-      <c r="E101" s="29"/>
+      <c r="E101" s="20"/>
     </row>
     <row r="102" spans="5:5">
-      <c r="E102" s="29"/>
+      <c r="E102" s="20"/>
     </row>
     <row r="103" spans="5:5">
-      <c r="E103" s="29"/>
+      <c r="E103" s="20"/>
     </row>
     <row r="104" spans="5:5">
-      <c r="E104" s="29"/>
+      <c r="E104" s="20"/>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="29"/>
+      <c r="E105" s="20"/>
     </row>
     <row r="106" spans="5:5">
-      <c r="E106" s="29"/>
+      <c r="E106" s="20"/>
     </row>
     <row r="107" spans="5:5">
-      <c r="E107" s="29"/>
+      <c r="E107" s="20"/>
     </row>
     <row r="108" spans="5:5">
-      <c r="E108" s="29"/>
+      <c r="E108" s="20"/>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="29"/>
+      <c r="E109" s="20"/>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="29"/>
+      <c r="E110" s="20"/>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="29"/>
+      <c r="E111" s="20"/>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="29"/>
+      <c r="E112" s="20"/>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="29"/>
+      <c r="E113" s="20"/>
     </row>
     <row r="114" spans="5:5">
-      <c r="E114" s="29"/>
+      <c r="E114" s="20"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="29"/>
+      <c r="E115" s="20"/>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="29"/>
+      <c r="E116" s="20"/>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="29"/>
+      <c r="E117" s="20"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="29"/>
+      <c r="E118" s="20"/>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="29"/>
+      <c r="E119" s="20"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="29"/>
+      <c r="E120" s="20"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="29"/>
+      <c r="E121" s="20"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="29"/>
+      <c r="E122" s="20"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="29"/>
+      <c r="E123" s="20"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="29"/>
+      <c r="E124" s="20"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="29"/>
+      <c r="E125" s="20"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="29"/>
+      <c r="E126" s="20"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="29"/>
+      <c r="E127" s="20"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="29"/>
+      <c r="E128" s="20"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="29"/>
+      <c r="E129" s="20"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="29"/>
+      <c r="E130" s="20"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="29"/>
+      <c r="E131" s="20"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="29"/>
+      <c r="E132" s="20"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="29"/>
+      <c r="E133" s="20"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="29"/>
+      <c r="E134" s="20"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="29"/>
+      <c r="E135" s="20"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="29"/>
+      <c r="E136" s="20"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="29"/>
+      <c r="E137" s="20"/>
     </row>
     <row r="138" spans="5:5">
-      <c r="E138" s="29"/>
+      <c r="E138" s="20"/>
     </row>
     <row r="139" spans="5:5">
-      <c r="E139" s="29"/>
+      <c r="E139" s="20"/>
     </row>
     <row r="140" spans="5:5">
-      <c r="E140" s="29"/>
+      <c r="E140" s="20"/>
     </row>
     <row r="141" spans="5:5">
-      <c r="E141" s="29"/>
+      <c r="E141" s="20"/>
     </row>
     <row r="142" spans="5:5">
-      <c r="E142" s="29"/>
+      <c r="E142" s="20"/>
     </row>
     <row r="143" spans="5:5">
-      <c r="E143" s="29"/>
+      <c r="E143" s="20"/>
     </row>
     <row r="144" spans="5:5">
-      <c r="E144" s="29"/>
+      <c r="E144" s="20"/>
     </row>
     <row r="145" spans="5:5">
-      <c r="E145" s="29"/>
+      <c r="E145" s="20"/>
     </row>
     <row r="146" spans="5:5">
-      <c r="E146" s="29"/>
+      <c r="E146" s="20"/>
     </row>
     <row r="147" spans="5:5">
-      <c r="E147" s="29"/>
+      <c r="E147" s="20"/>
     </row>
     <row r="148" spans="5:5">
-      <c r="E148" s="29"/>
+      <c r="E148" s="20"/>
     </row>
     <row r="149" spans="5:5">
-      <c r="E149" s="29"/>
+      <c r="E149" s="20"/>
     </row>
     <row r="150" spans="5:5">
-      <c r="E150" s="29"/>
+      <c r="E150" s="20"/>
     </row>
     <row r="151" spans="5:5">
-      <c r="E151" s="29"/>
+      <c r="E151" s="20"/>
     </row>
     <row r="152" spans="5:5">
-      <c r="E152" s="29"/>
+      <c r="E152" s="20"/>
     </row>
     <row r="153" spans="5:5">
-      <c r="E153" s="29"/>
+      <c r="E153" s="20"/>
     </row>
     <row r="154" spans="5:5">
-      <c r="E154" s="29"/>
+      <c r="E154" s="20"/>
     </row>
     <row r="155" spans="5:5">
-      <c r="E155" s="29"/>
+      <c r="E155" s="20"/>
     </row>
     <row r="156" spans="5:5">
-      <c r="E156" s="29"/>
+      <c r="E156" s="20"/>
     </row>
     <row r="157" spans="5:5">
-      <c r="E157" s="29"/>
+      <c r="E157" s="20"/>
     </row>
     <row r="158" spans="5:5">
-      <c r="E158" s="29"/>
+      <c r="E158" s="20"/>
     </row>
     <row r="159" spans="5:5">
-      <c r="E159" s="29"/>
+      <c r="E159" s="20"/>
     </row>
     <row r="160" spans="5:5">
-      <c r="E160" s="29"/>
+      <c r="E160" s="20"/>
     </row>
     <row r="161" spans="5:5">
-      <c r="E161" s="29"/>
+      <c r="E161" s="20"/>
     </row>
     <row r="162" spans="5:5">
-      <c r="E162" s="29"/>
+      <c r="E162" s="20"/>
     </row>
     <row r="163" spans="5:5">
-      <c r="E163" s="29"/>
+      <c r="E163" s="20"/>
     </row>
     <row r="164" spans="5:5">
-      <c r="E164" s="29"/>
+      <c r="E164" s="20"/>
     </row>
     <row r="165" spans="5:5">
-      <c r="E165" s="29"/>
+      <c r="E165" s="20"/>
     </row>
     <row r="166" spans="5:5">
-      <c r="E166" s="29"/>
+      <c r="E166" s="20"/>
     </row>
     <row r="167" spans="5:5">
-      <c r="E167" s="29"/>
+      <c r="E167" s="20"/>
     </row>
     <row r="168" spans="5:5">
-      <c r="E168" s="29"/>
+      <c r="E168" s="20"/>
     </row>
     <row r="169" spans="5:5">
-      <c r="E169" s="29"/>
+      <c r="E169" s="20"/>
     </row>
     <row r="170" spans="5:5">
-      <c r="E170" s="29"/>
+      <c r="E170" s="20"/>
     </row>
     <row r="171" spans="5:5">
-      <c r="E171" s="29"/>
+      <c r="E171" s="20"/>
     </row>
     <row r="172" spans="5:5">
-      <c r="E172" s="29"/>
+      <c r="E172" s="20"/>
     </row>
     <row r="173" spans="5:5">
-      <c r="E173" s="29"/>
+      <c r="E173" s="20"/>
     </row>
     <row r="174" spans="5:5">
-      <c r="E174" s="29"/>
+      <c r="E174" s="20"/>
     </row>
     <row r="175" spans="5:5">
-      <c r="E175" s="29"/>
+      <c r="E175" s="20"/>
     </row>
     <row r="176" spans="5:5">
-      <c r="E176" s="29"/>
+      <c r="E176" s="20"/>
     </row>
     <row r="177" spans="5:5">
-      <c r="E177" s="29"/>
+      <c r="E177" s="20"/>
     </row>
     <row r="178" spans="5:5">
-      <c r="E178" s="29"/>
+      <c r="E178" s="20"/>
     </row>
     <row r="179" spans="5:5">
-      <c r="E179" s="29"/>
+      <c r="E179" s="20"/>
     </row>
     <row r="180" spans="5:5">
-      <c r="E180" s="29"/>
+      <c r="E180" s="20"/>
     </row>
     <row r="181" spans="5:5">
-      <c r="E181" s="29"/>
+      <c r="E181" s="20"/>
     </row>
     <row r="182" spans="5:5">
-      <c r="E182" s="29"/>
+      <c r="E182" s="20"/>
     </row>
     <row r="183" spans="5:5">
-      <c r="E183" s="29"/>
+      <c r="E183" s="20"/>
     </row>
     <row r="184" spans="5:5">
-      <c r="E184" s="29"/>
+      <c r="E184" s="20"/>
     </row>
     <row r="185" spans="5:5">
-      <c r="E185" s="29"/>
+      <c r="E185" s="20"/>
     </row>
     <row r="186" spans="5:5">
-      <c r="E186" s="29"/>
+      <c r="E186" s="20"/>
     </row>
     <row r="187" spans="5:5">
-      <c r="E187" s="29"/>
+      <c r="E187" s="20"/>
     </row>
     <row r="188" spans="5:5">
-      <c r="E188" s="29"/>
+      <c r="E188" s="20"/>
     </row>
     <row r="189" spans="5:5">
-      <c r="E189" s="29"/>
+      <c r="E189" s="20"/>
     </row>
     <row r="190" spans="5:5">
-      <c r="E190" s="29"/>
+      <c r="E190" s="20"/>
     </row>
     <row r="191" spans="5:5">
-      <c r="E191" s="29"/>
+      <c r="E191" s="20"/>
     </row>
     <row r="192" spans="5:5">
-      <c r="E192" s="29"/>
+      <c r="E192" s="20"/>
     </row>
     <row r="193" spans="5:5">
-      <c r="E193" s="29"/>
+      <c r="E193" s="20"/>
     </row>
     <row r="194" spans="5:5">
-      <c r="E194" s="29"/>
+      <c r="E194" s="20"/>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="29"/>
+      <c r="E195" s="20"/>
     </row>
     <row r="196" spans="5:5">
-      <c r="E196" s="29"/>
+      <c r="E196" s="20"/>
     </row>
     <row r="197" spans="5:5">
-      <c r="E197" s="29"/>
+      <c r="E197" s="20"/>
     </row>
     <row r="198" spans="5:5">
-      <c r="E198" s="29"/>
+      <c r="E198" s="20"/>
     </row>
     <row r="199" spans="5:5">
-      <c r="E199" s="29"/>
+      <c r="E199" s="20"/>
     </row>
     <row r="200" spans="5:5">
-      <c r="E200" s="29"/>
+      <c r="E200" s="20"/>
     </row>
     <row r="201" spans="5:5">
-      <c r="E201" s="29"/>
+      <c r="E201" s="20"/>
     </row>
     <row r="202" spans="5:5">
-      <c r="E202" s="29"/>
+      <c r="E202" s="20"/>
     </row>
     <row r="203" spans="5:5">
-      <c r="E203" s="29"/>
+      <c r="E203" s="20"/>
     </row>
     <row r="204" spans="5:5">
-      <c r="E204" s="29"/>
+      <c r="E204" s="20"/>
     </row>
     <row r="205" spans="5:5">
-      <c r="E205" s="29"/>
+      <c r="E205" s="20"/>
     </row>
     <row r="206" spans="5:5">
-      <c r="E206" s="29"/>
+      <c r="E206" s="20"/>
     </row>
     <row r="207" spans="5:5">
-      <c r="E207" s="29"/>
+      <c r="E207" s="20"/>
     </row>
     <row r="208" spans="5:5">
-      <c r="E208" s="29"/>
+      <c r="E208" s="20"/>
     </row>
     <row r="209" spans="5:5">
-      <c r="E209" s="29"/>
+      <c r="E209" s="20"/>
     </row>
     <row r="210" spans="5:5">
-      <c r="E210" s="29"/>
+      <c r="E210" s="20"/>
     </row>
     <row r="211" spans="5:5">
-      <c r="E211" s="29"/>
+      <c r="E211" s="20"/>
     </row>
     <row r="212" spans="5:5">
-      <c r="E212" s="29"/>
+      <c r="E212" s="20"/>
     </row>
     <row r="213" spans="5:5">
-      <c r="E213" s="29"/>
+      <c r="E213" s="20"/>
     </row>
     <row r="214" spans="5:5">
-      <c r="E214" s="29"/>
+      <c r="E214" s="20"/>
     </row>
     <row r="215" spans="5:5">
-      <c r="E215" s="29"/>
+      <c r="E215" s="20"/>
     </row>
     <row r="216" spans="5:5">
-      <c r="E216" s="29"/>
+      <c r="E216" s="20"/>
     </row>
     <row r="217" spans="5:5">
-      <c r="E217" s="29"/>
+      <c r="E217" s="20"/>
     </row>
     <row r="218" spans="5:5">
-      <c r="E218" s="29"/>
+      <c r="E218" s="20"/>
     </row>
     <row r="219" spans="5:5">
-      <c r="E219" s="29"/>
+      <c r="E219" s="20"/>
     </row>
     <row r="220" spans="5:5">
-      <c r="E220" s="29"/>
+      <c r="E220" s="20"/>
     </row>
     <row r="221" spans="5:5">
-      <c r="E221" s="29"/>
+      <c r="E221" s="20"/>
     </row>
     <row r="222" spans="5:5">
-      <c r="E222" s="29"/>
+      <c r="E222" s="20"/>
     </row>
     <row r="223" spans="5:5">
-      <c r="E223" s="29"/>
+      <c r="E223" s="20"/>
     </row>
     <row r="224" spans="5:5">
-      <c r="E224" s="29"/>
+      <c r="E224" s="20"/>
     </row>
     <row r="225" spans="5:5">
-      <c r="E225" s="29"/>
+      <c r="E225" s="20"/>
     </row>
     <row r="226" spans="5:5">
-      <c r="E226" s="29"/>
+      <c r="E226" s="20"/>
     </row>
     <row r="227" spans="5:5">
-      <c r="E227" s="29"/>
+      <c r="E227" s="20"/>
     </row>
     <row r="228" spans="5:5">
-      <c r="E228" s="29"/>
+      <c r="E228" s="20"/>
     </row>
     <row r="229" spans="5:5">
-      <c r="E229" s="29"/>
+      <c r="E229" s="20"/>
     </row>
     <row r="230" spans="5:5">
-      <c r="E230" s="29"/>
+      <c r="E230" s="20"/>
     </row>
     <row r="231" spans="5:5">
-      <c r="E231" s="29"/>
+      <c r="E231" s="20"/>
     </row>
     <row r="232" spans="5:5">
-      <c r="E232" s="29"/>
+      <c r="E232" s="20"/>
     </row>
     <row r="233" spans="5:5">
-      <c r="E233" s="29"/>
+      <c r="E233" s="20"/>
     </row>
     <row r="234" spans="5:5">
-      <c r="E234" s="29"/>
+      <c r="E234" s="20"/>
     </row>
     <row r="235" spans="5:5">
-      <c r="E235" s="29"/>
+      <c r="E235" s="20"/>
     </row>
     <row r="236" spans="5:5">
-      <c r="E236" s="29"/>
+      <c r="E236" s="20"/>
     </row>
     <row r="237" spans="5:5">
-      <c r="E237" s="29"/>
+      <c r="E237" s="20"/>
     </row>
     <row r="238" spans="5:5">
-      <c r="E238" s="29"/>
+      <c r="E238" s="20"/>
     </row>
     <row r="239" spans="5:5">
-      <c r="E239" s="29"/>
+      <c r="E239" s="20"/>
     </row>
     <row r="240" spans="5:5">
-      <c r="E240" s="29"/>
+      <c r="E240" s="20"/>
     </row>
     <row r="241" spans="5:5">
-      <c r="E241" s="29"/>
+      <c r="E241" s="20"/>
     </row>
     <row r="242" spans="5:5">
-      <c r="E242" s="29"/>
+      <c r="E242" s="20"/>
     </row>
     <row r="243" spans="5:5">
-      <c r="E243" s="29"/>
+      <c r="E243" s="20"/>
     </row>
     <row r="244" spans="5:5">
-      <c r="E244" s="29"/>
+      <c r="E244" s="20"/>
     </row>
     <row r="245" spans="5:5">
-      <c r="E245" s="29"/>
+      <c r="E245" s="20"/>
     </row>
     <row r="246" spans="5:5">
-      <c r="E246" s="29"/>
+      <c r="E246" s="20"/>
     </row>
     <row r="247" spans="5:5">
-      <c r="E247" s="29"/>
+      <c r="E247" s="20"/>
     </row>
     <row r="248" spans="5:5">
-      <c r="E248" s="29"/>
+      <c r="E248" s="20"/>
     </row>
     <row r="249" spans="5:5">
-      <c r="E249" s="29"/>
+      <c r="E249" s="20"/>
     </row>
     <row r="250" spans="5:5">
-      <c r="E250" s="29"/>
+      <c r="E250" s="20"/>
     </row>
     <row r="251" spans="5:5">
-      <c r="E251" s="29"/>
+      <c r="E251" s="20"/>
     </row>
     <row r="252" spans="5:5">
-      <c r="E252" s="29"/>
+      <c r="E252" s="20"/>
     </row>
     <row r="253" spans="5:5">
-      <c r="E253" s="29"/>
+      <c r="E253" s="20"/>
     </row>
     <row r="254" spans="5:5">
-      <c r="E254" s="29"/>
+      <c r="E254" s="20"/>
     </row>
     <row r="255" spans="5:5">
-      <c r="E255" s="29"/>
+      <c r="E255" s="20"/>
     </row>
     <row r="256" spans="5:5">
-      <c r="E256" s="29"/>
+      <c r="E256" s="20"/>
     </row>
     <row r="257" spans="5:5">
-      <c r="E257" s="29"/>
+      <c r="E257" s="20"/>
     </row>
     <row r="258" spans="5:5">
-      <c r="E258" s="29"/>
+      <c r="E258" s="20"/>
     </row>
     <row r="259" spans="5:5">
-      <c r="E259" s="29"/>
+      <c r="E259" s="20"/>
     </row>
     <row r="260" spans="5:5">
-      <c r="E260" s="29"/>
+      <c r="E260" s="20"/>
     </row>
     <row r="261" spans="5:5">
-      <c r="E261" s="29"/>
+      <c r="E261" s="20"/>
     </row>
     <row r="262" spans="5:5">
-      <c r="E262" s="29"/>
+      <c r="E262" s="20"/>
     </row>
     <row r="263" spans="5:5">
-      <c r="E263" s="29"/>
+      <c r="E263" s="20"/>
     </row>
     <row r="264" spans="5:5">
-      <c r="E264" s="29"/>
+      <c r="E264" s="20"/>
     </row>
     <row r="265" spans="5:5">
-      <c r="E265" s="29"/>
+      <c r="E265" s="20"/>
     </row>
     <row r="266" spans="5:5">
-      <c r="E266" s="29"/>
+      <c r="E266" s="20"/>
     </row>
     <row r="267" spans="5:5">
-      <c r="E267" s="29"/>
+      <c r="E267" s="20"/>
     </row>
     <row r="268" spans="5:5">
-      <c r="E268" s="29"/>
+      <c r="E268" s="20"/>
     </row>
     <row r="269" spans="5:5">
-      <c r="E269" s="29"/>
+      <c r="E269" s="20"/>
     </row>
     <row r="270" spans="5:5">
-      <c r="E270" s="29"/>
+      <c r="E270" s="20"/>
     </row>
     <row r="271" spans="5:5">
-      <c r="E271" s="29"/>
+      <c r="E271" s="20"/>
     </row>
     <row r="272" spans="5:5">
-      <c r="E272" s="29"/>
+      <c r="E272" s="20"/>
     </row>
     <row r="273" spans="5:5">
-      <c r="E273" s="29"/>
+      <c r="E273" s="20"/>
     </row>
     <row r="274" spans="5:5">
-      <c r="E274" s="29"/>
+      <c r="E274" s="20"/>
     </row>
     <row r="275" spans="5:5">
-      <c r="E275" s="29"/>
+      <c r="E275" s="20"/>
     </row>
     <row r="276" spans="5:5">
-      <c r="E276" s="29"/>
+      <c r="E276" s="20"/>
     </row>
     <row r="277" spans="5:5">
-      <c r="E277" s="29"/>
+      <c r="E277" s="20"/>
     </row>
     <row r="278" spans="5:5">
-      <c r="E278" s="29"/>
+      <c r="E278" s="20"/>
     </row>
     <row r="279" spans="5:5">
-      <c r="E279" s="29"/>
+      <c r="E279" s="20"/>
     </row>
     <row r="280" spans="5:5">
-      <c r="E280" s="29"/>
+      <c r="E280" s="20"/>
     </row>
     <row r="281" spans="5:5">
-      <c r="E281" s="29"/>
+      <c r="E281" s="20"/>
     </row>
     <row r="282" spans="5:5">
-      <c r="E282" s="29"/>
+      <c r="E282" s="20"/>
     </row>
     <row r="283" spans="5:5">
-      <c r="E283" s="29"/>
+      <c r="E283" s="20"/>
     </row>
     <row r="284" spans="5:5">
-      <c r="E284" s="29"/>
+      <c r="E284" s="20"/>
     </row>
     <row r="285" spans="5:5">
-      <c r="E285" s="29"/>
+      <c r="E285" s="20"/>
     </row>
     <row r="286" spans="5:5">
-      <c r="E286" s="29"/>
+      <c r="E286" s="20"/>
     </row>
     <row r="287" spans="5:5">
-      <c r="E287" s="29"/>
+      <c r="E287" s="20"/>
     </row>
     <row r="288" spans="5:5">
-      <c r="E288" s="29"/>
+      <c r="E288" s="20"/>
     </row>
     <row r="289" spans="5:5">
-      <c r="E289" s="29"/>
+      <c r="E289" s="20"/>
     </row>
     <row r="290" spans="5:5">
-      <c r="E290" s="29"/>
+      <c r="E290" s="20"/>
     </row>
     <row r="291" spans="5:5">
-      <c r="E291" s="29"/>
+      <c r="E291" s="20"/>
     </row>
     <row r="292" spans="5:5">
-      <c r="E292" s="29"/>
+      <c r="E292" s="20"/>
     </row>
     <row r="293" spans="5:5">
-      <c r="E293" s="29"/>
+      <c r="E293" s="20"/>
     </row>
     <row r="294" spans="5:5">
-      <c r="E294" s="29"/>
+      <c r="E294" s="20"/>
     </row>
     <row r="295" spans="5:5">
-      <c r="E295" s="29"/>
+      <c r="E295" s="20"/>
     </row>
     <row r="296" spans="5:5">
-      <c r="E296" s="29"/>
+      <c r="E296" s="20"/>
     </row>
     <row r="297" spans="5:5">
-      <c r="E297" s="29"/>
+      <c r="E297" s="20"/>
     </row>
     <row r="298" spans="5:5">
-      <c r="E298" s="29"/>
+      <c r="E298" s="20"/>
     </row>
     <row r="299" spans="5:5">
-      <c r="E299" s="29"/>
+      <c r="E299" s="20"/>
     </row>
     <row r="300" spans="5:5">
-      <c r="E300" s="29"/>
+      <c r="E300" s="20"/>
     </row>
     <row r="301" spans="5:5">
-      <c r="E301" s="29"/>
+      <c r="E301" s="20"/>
     </row>
     <row r="302" spans="5:5">
-      <c r="E302" s="29"/>
+      <c r="E302" s="20"/>
     </row>
     <row r="303" spans="5:5">
-      <c r="E303" s="29"/>
+      <c r="E303" s="20"/>
     </row>
     <row r="304" spans="5:5">
-      <c r="E304" s="29"/>
+      <c r="E304" s="20"/>
     </row>
     <row r="305" spans="5:5">
-      <c r="E305" s="29"/>
+      <c r="E305" s="20"/>
     </row>
     <row r="306" spans="5:5">
-      <c r="E306" s="29"/>
+      <c r="E306" s="20"/>
     </row>
     <row r="307" spans="5:5">
-      <c r="E307" s="29"/>
+      <c r="E307" s="20"/>
     </row>
     <row r="308" spans="5:5">
-      <c r="E308" s="29"/>
+      <c r="E308" s="20"/>
     </row>
     <row r="309" spans="5:5">
-      <c r="E309" s="29"/>
+      <c r="E309" s="20"/>
     </row>
     <row r="310" spans="5:5">
-      <c r="E310" s="29"/>
+      <c r="E310" s="20"/>
     </row>
     <row r="311" spans="5:5">
-      <c r="E311" s="29"/>
+      <c r="E311" s="20"/>
     </row>
     <row r="312" spans="5:5">
-      <c r="E312" s="29"/>
+      <c r="E312" s="20"/>
     </row>
     <row r="313" spans="5:5">
-      <c r="E313" s="29"/>
+      <c r="E313" s="20"/>
     </row>
     <row r="314" spans="5:5">
-      <c r="E314" s="29"/>
+      <c r="E314" s="20"/>
     </row>
     <row r="315" spans="5:5">
-      <c r="E315" s="29"/>
+      <c r="E315" s="20"/>
     </row>
     <row r="316" spans="5:5">
-      <c r="E316" s="29"/>
+      <c r="E316" s="20"/>
     </row>
     <row r="317" spans="5:5">
-      <c r="E317" s="29"/>
+      <c r="E317" s="20"/>
     </row>
     <row r="318" spans="5:5">
-      <c r="E318" s="29"/>
+      <c r="E318" s="20"/>
     </row>
     <row r="319" spans="5:5">
-      <c r="E319" s="29"/>
+      <c r="E319" s="20"/>
     </row>
     <row r="320" spans="5:5">
-      <c r="E320" s="29"/>
+      <c r="E320" s="20"/>
     </row>
     <row r="321" spans="5:5">
-      <c r="E321" s="29"/>
+      <c r="E321" s="20"/>
     </row>
     <row r="322" spans="5:5">
-      <c r="E322" s="29"/>
+      <c r="E322" s="20"/>
     </row>
     <row r="323" spans="5:5">
-      <c r="E323" s="29"/>
+      <c r="E323" s="20"/>
     </row>
     <row r="324" spans="5:5">
-      <c r="E324" s="29"/>
+      <c r="E324" s="20"/>
     </row>
     <row r="325" spans="5:5">
-      <c r="E325" s="29"/>
+      <c r="E325" s="20"/>
     </row>
     <row r="326" spans="5:5">
-      <c r="E326" s="29"/>
+      <c r="E326" s="20"/>
     </row>
     <row r="327" spans="5:5">
-      <c r="E327" s="29"/>
+      <c r="E327" s="20"/>
     </row>
     <row r="328" spans="5:5">
-      <c r="E328" s="29"/>
+      <c r="E328" s="20"/>
     </row>
     <row r="329" spans="5:5">
-      <c r="E329" s="29"/>
+      <c r="E329" s="20"/>
     </row>
     <row r="330" spans="5:5">
-      <c r="E330" s="29"/>
+      <c r="E330" s="20"/>
     </row>
     <row r="331" spans="5:5">
-      <c r="E331" s="29"/>
+      <c r="E331" s="20"/>
     </row>
     <row r="332" spans="5:5">
-      <c r="E332" s="29"/>
+      <c r="E332" s="20"/>
     </row>
     <row r="333" spans="5:5">
-      <c r="E333" s="29"/>
+      <c r="E333" s="20"/>
     </row>
     <row r="334" spans="5:5">
-      <c r="E334" s="29"/>
+      <c r="E334" s="20"/>
     </row>
     <row r="335" spans="5:5">
-      <c r="E335" s="29"/>
+      <c r="E335" s="20"/>
     </row>
     <row r="336" spans="5:5">
-      <c r="E336" s="29"/>
+      <c r="E336" s="20"/>
     </row>
     <row r="337" spans="5:5">
-      <c r="E337" s="29"/>
+      <c r="E337" s="20"/>
     </row>
     <row r="338" spans="5:5">
-      <c r="E338" s="29"/>
+      <c r="E338" s="20"/>
     </row>
     <row r="339" spans="5:5">
-      <c r="E339" s="29"/>
+      <c r="E339" s="20"/>
     </row>
     <row r="340" spans="5:5">
-      <c r="E340" s="29"/>
+      <c r="E340" s="20"/>
     </row>
     <row r="341" spans="5:5">
-      <c r="E341" s="29"/>
+      <c r="E341" s="20"/>
     </row>
     <row r="342" spans="5:5">
-      <c r="E342" s="29"/>
+      <c r="E342" s="20"/>
     </row>
     <row r="343" spans="5:5">
-      <c r="E343" s="29"/>
+      <c r="E343" s="20"/>
     </row>
     <row r="344" spans="5:5">
-      <c r="E344" s="29"/>
+      <c r="E344" s="20"/>
     </row>
     <row r="345" spans="5:5">
-      <c r="E345" s="29"/>
+      <c r="E345" s="20"/>
     </row>
     <row r="346" spans="5:5">
-      <c r="E346" s="29"/>
+      <c r="E346" s="20"/>
     </row>
     <row r="347" spans="5:5">
-      <c r="E347" s="29"/>
+      <c r="E347" s="20"/>
     </row>
     <row r="348" spans="5:5">
-      <c r="E348" s="29"/>
+      <c r="E348" s="20"/>
     </row>
     <row r="349" spans="5:5">
-      <c r="E349" s="29"/>
+      <c r="E349" s="20"/>
     </row>
     <row r="350" spans="5:5">
-      <c r="E350" s="29"/>
+      <c r="E350" s="20"/>
     </row>
     <row r="351" spans="5:5">
-      <c r="E351" s="29"/>
+      <c r="E351" s="20"/>
     </row>
     <row r="352" spans="5:5">
-      <c r="E352" s="29"/>
+      <c r="E352" s="20"/>
     </row>
     <row r="353" spans="5:5">
-      <c r="E353" s="29"/>
+      <c r="E353" s="20"/>
     </row>
     <row r="354" spans="5:5">
-      <c r="E354" s="29"/>
+      <c r="E354" s="20"/>
     </row>
     <row r="355" spans="5:5">
-      <c r="E355" s="29"/>
+      <c r="E355" s="20"/>
     </row>
     <row r="356" spans="5:5">
-      <c r="E356" s="29"/>
+      <c r="E356" s="20"/>
     </row>
     <row r="357" spans="5:5">
-      <c r="E357" s="29"/>
+      <c r="E357" s="20"/>
     </row>
     <row r="358" spans="5:5">
-      <c r="E358" s="29"/>
+      <c r="E358" s="20"/>
     </row>
     <row r="359" spans="5:5">
-      <c r="E359" s="29"/>
+      <c r="E359" s="20"/>
     </row>
     <row r="360" spans="5:5">
-      <c r="E360" s="29"/>
+      <c r="E360" s="20"/>
     </row>
     <row r="361" spans="5:5">
-      <c r="E361" s="29"/>
+      <c r="E361" s="20"/>
     </row>
     <row r="362" spans="5:5">
-      <c r="E362" s="29"/>
+      <c r="E362" s="20"/>
     </row>
     <row r="363" spans="5:5">
-      <c r="E363" s="29"/>
+      <c r="E363" s="20"/>
     </row>
     <row r="364" spans="5:5">
-      <c r="E364" s="29"/>
+      <c r="E364" s="20"/>
     </row>
     <row r="365" spans="5:5">
-      <c r="E365" s="29"/>
+      <c r="E365" s="20"/>
     </row>
     <row r="366" spans="5:5">
-      <c r="E366" s="29"/>
+      <c r="E366" s="20"/>
     </row>
     <row r="367" spans="5:5">
-      <c r="E367" s="29"/>
+      <c r="E367" s="20"/>
     </row>
     <row r="368" spans="5:5">
-      <c r="E368" s="29"/>
+      <c r="E368" s="20"/>
     </row>
     <row r="369" spans="5:5">
-      <c r="E369" s="29"/>
+      <c r="E369" s="20"/>
     </row>
     <row r="370" spans="5:5">
-      <c r="E370" s="29"/>
+      <c r="E370" s="20"/>
     </row>
     <row r="371" spans="5:5">
-      <c r="E371" s="29"/>
+      <c r="E371" s="20"/>
     </row>
     <row r="372" spans="5:5">
-      <c r="E372" s="29"/>
+      <c r="E372" s="20"/>
     </row>
     <row r="373" spans="5:5">
-      <c r="E373" s="29"/>
+      <c r="E373" s="20"/>
     </row>
     <row r="374" spans="5:5">
-      <c r="E374" s="29"/>
+      <c r="E374" s="20"/>
     </row>
     <row r="375" spans="5:5">
-      <c r="E375" s="29"/>
+      <c r="E375" s="20"/>
     </row>
     <row r="376" spans="5:5">
-      <c r="E376" s="29"/>
+      <c r="E376" s="20"/>
     </row>
     <row r="377" spans="5:5">
-      <c r="E377" s="29"/>
+      <c r="E377" s="20"/>
     </row>
     <row r="378" spans="5:5">
-      <c r="E378" s="29"/>
+      <c r="E378" s="20"/>
     </row>
     <row r="379" spans="5:5">
-      <c r="E379" s="29"/>
+      <c r="E379" s="20"/>
     </row>
     <row r="380" spans="5:5">
-      <c r="E380" s="29"/>
+      <c r="E380" s="20"/>
     </row>
     <row r="381" spans="5:5">
-      <c r="E381" s="29"/>
+      <c r="E381" s="20"/>
     </row>
     <row r="382" spans="5:5">
-      <c r="E382" s="29"/>
+      <c r="E382" s="20"/>
     </row>
     <row r="383" spans="5:5">
-      <c r="E383" s="29"/>
+      <c r="E383" s="20"/>
     </row>
     <row r="384" spans="5:5">
-      <c r="E384" s="29"/>
+      <c r="E384" s="20"/>
     </row>
     <row r="385" spans="5:5">
-      <c r="E385" s="29"/>
+      <c r="E385" s="20"/>
     </row>
     <row r="386" spans="5:5">
-      <c r="E386" s="29"/>
+      <c r="E386" s="20"/>
     </row>
     <row r="387" spans="5:5">
-      <c r="E387" s="29"/>
+      <c r="E387" s="20"/>
     </row>
     <row r="388" spans="5:5">
-      <c r="E388" s="29"/>
+      <c r="E388" s="20"/>
     </row>
     <row r="389" spans="5:5">
-      <c r="E389" s="29"/>
+      <c r="E389" s="20"/>
     </row>
     <row r="390" spans="5:5">
-      <c r="E390" s="29"/>
+      <c r="E390" s="20"/>
     </row>
     <row r="391" spans="5:5">
-      <c r="E391" s="29"/>
+      <c r="E391" s="20"/>
     </row>
     <row r="392" spans="5:5">
-      <c r="E392" s="29"/>
+      <c r="E392" s="20"/>
     </row>
     <row r="393" spans="5:5">
-      <c r="E393" s="29"/>
+      <c r="E393" s="20"/>
     </row>
     <row r="394" spans="5:5">
-      <c r="E394" s="29"/>
+      <c r="E394" s="20"/>
     </row>
     <row r="395" spans="5:5">
-      <c r="E395" s="29"/>
+      <c r="E395" s="20"/>
     </row>
     <row r="396" spans="5:5">
-      <c r="E396" s="29"/>
+      <c r="E396" s="20"/>
     </row>
     <row r="397" spans="5:5">
-      <c r="E397" s="29"/>
+      <c r="E397" s="20"/>
     </row>
     <row r="398" spans="5:5">
-      <c r="E398" s="29"/>
+      <c r="E398" s="20"/>
     </row>
     <row r="399" spans="5:5">
-      <c r="E399" s="29"/>
+      <c r="E399" s="20"/>
     </row>
     <row r="400" spans="5:5">
-      <c r="E400" s="29"/>
+      <c r="E400" s="20"/>
     </row>
     <row r="401" spans="5:5">
-      <c r="E401" s="29"/>
+      <c r="E401" s="20"/>
     </row>
     <row r="402" spans="5:5">
-      <c r="E402" s="29"/>
+      <c r="E402" s="20"/>
     </row>
     <row r="403" spans="5:5">
-      <c r="E403" s="29"/>
+      <c r="E403" s="20"/>
     </row>
     <row r="404" spans="5:5">
-      <c r="E404" s="29"/>
+      <c r="E404" s="20"/>
     </row>
     <row r="405" spans="5:5">
-      <c r="E405" s="29"/>
+      <c r="E405" s="20"/>
     </row>
     <row r="406" spans="5:5">
-      <c r="E406" s="29"/>
+      <c r="E406" s="20"/>
     </row>
     <row r="407" spans="5:5">
-      <c r="E407" s="29"/>
+      <c r="E407" s="20"/>
     </row>
     <row r="408" spans="5:5">
-      <c r="E408" s="29"/>
+      <c r="E408" s="20"/>
     </row>
     <row r="409" spans="5:5">
-      <c r="E409" s="29"/>
+      <c r="E409" s="20"/>
     </row>
     <row r="410" spans="5:5">
-      <c r="E410" s="29"/>
+      <c r="E410" s="20"/>
     </row>
     <row r="411" spans="5:5">
-      <c r="E411" s="29"/>
+      <c r="E411" s="20"/>
     </row>
     <row r="412" spans="5:5">
-      <c r="E412" s="29"/>
+      <c r="E412" s="20"/>
     </row>
     <row r="413" spans="5:5">
-      <c r="E413" s="29"/>
+      <c r="E413" s="20"/>
     </row>
     <row r="414" spans="5:5">
-      <c r="E414" s="29"/>
+      <c r="E414" s="20"/>
     </row>
     <row r="415" spans="5:5">
-      <c r="E415" s="29"/>
+      <c r="E415" s="20"/>
     </row>
     <row r="416" spans="5:5">
-      <c r="E416" s="29"/>
+      <c r="E416" s="20"/>
     </row>
     <row r="417" spans="5:5">
-      <c r="E417" s="29"/>
+      <c r="E417" s="20"/>
     </row>
     <row r="418" spans="5:5">
-      <c r="E418" s="29"/>
+      <c r="E418" s="20"/>
     </row>
     <row r="419" spans="5:5">
-      <c r="E419" s="29"/>
+      <c r="E419" s="20"/>
     </row>
     <row r="420" spans="5:5">
-      <c r="E420" s="29"/>
+      <c r="E420" s="20"/>
     </row>
     <row r="421" spans="5:5">
-      <c r="E421" s="29"/>
+      <c r="E421" s="20"/>
     </row>
     <row r="422" spans="5:5">
-      <c r="E422" s="29"/>
+      <c r="E422" s="20"/>
     </row>
     <row r="423" spans="5:5">
-      <c r="E423" s="29"/>
+      <c r="E423" s="20"/>
     </row>
     <row r="424" spans="5:5">
-      <c r="E424" s="29"/>
+      <c r="E424" s="20"/>
     </row>
     <row r="425" spans="5:5">
-      <c r="E425" s="29"/>
+      <c r="E425" s="20"/>
     </row>
     <row r="426" spans="5:5">
-      <c r="E426" s="29"/>
+      <c r="E426" s="20"/>
     </row>
     <row r="427" spans="5:5">
-      <c r="E427" s="29"/>
+      <c r="E427" s="20"/>
     </row>
     <row r="428" spans="5:5">
-      <c r="E428" s="29"/>
+      <c r="E428" s="20"/>
     </row>
     <row r="429" spans="5:5">
-      <c r="E429" s="29"/>
+      <c r="E429" s="20"/>
     </row>
     <row r="430" spans="5:5">
-      <c r="E430" s="29"/>
+      <c r="E430" s="20"/>
     </row>
     <row r="431" spans="5:5">
-      <c r="E431" s="29"/>
+      <c r="E431" s="20"/>
     </row>
     <row r="432" spans="5:5">
-      <c r="E432" s="29"/>
+      <c r="E432" s="20"/>
     </row>
     <row r="433" spans="5:5">
-      <c r="E433" s="29"/>
+      <c r="E433" s="20"/>
     </row>
     <row r="434" spans="5:5">
-      <c r="E434" s="29"/>
+      <c r="E434" s="20"/>
     </row>
     <row r="435" spans="5:5">
-      <c r="E435" s="29"/>
+      <c r="E435" s="20"/>
     </row>
     <row r="436" spans="5:5">
-      <c r="E436" s="29"/>
+      <c r="E436" s="20"/>
     </row>
     <row r="437" spans="5:5">
-      <c r="E437" s="29"/>
+      <c r="E437" s="20"/>
     </row>
     <row r="438" spans="5:5">
-      <c r="E438" s="29"/>
+      <c r="E438" s="20"/>
     </row>
     <row r="439" spans="5:5">
-      <c r="E439" s="29"/>
+      <c r="E439" s="20"/>
     </row>
     <row r="440" spans="5:5">
-      <c r="E440" s="29"/>
+      <c r="E440" s="20"/>
     </row>
     <row r="441" spans="5:5">
-      <c r="E441" s="29"/>
+      <c r="E441" s="20"/>
     </row>
     <row r="442" spans="5:5">
-      <c r="E442" s="29"/>
+      <c r="E442" s="20"/>
     </row>
     <row r="443" spans="5:5">
-      <c r="E443" s="29"/>
+      <c r="E443" s="20"/>
     </row>
     <row r="444" spans="5:5">
-      <c r="E444" s="29"/>
+      <c r="E444" s="20"/>
     </row>
     <row r="445" spans="5:5">
-      <c r="E445" s="29"/>
+      <c r="E445" s="20"/>
     </row>
     <row r="446" spans="5:5">
-      <c r="E446" s="29"/>
+      <c r="E446" s="20"/>
     </row>
     <row r="447" spans="5:5">
-      <c r="E447" s="29"/>
+      <c r="E447" s="20"/>
     </row>
     <row r="448" spans="5:5">
-      <c r="E448" s="29"/>
+      <c r="E448" s="20"/>
     </row>
     <row r="449" spans="5:5">
-      <c r="E449" s="29"/>
+      <c r="E449" s="20"/>
     </row>
     <row r="450" spans="5:5">
-      <c r="E450" s="29"/>
+      <c r="E450" s="20"/>
     </row>
     <row r="451" spans="5:5">
-      <c r="E451" s="29"/>
+      <c r="E451" s="20"/>
     </row>
     <row r="452" spans="5:5">
-      <c r="E452" s="29"/>
+      <c r="E452" s="20"/>
     </row>
     <row r="453" spans="5:5">
-      <c r="E453" s="29"/>
+      <c r="E453" s="20"/>
     </row>
     <row r="454" spans="5:5">
-      <c r="E454" s="29"/>
+      <c r="E454" s="20"/>
     </row>
     <row r="455" spans="5:5">
-      <c r="E455" s="29"/>
+      <c r="E455" s="20"/>
     </row>
     <row r="456" spans="5:5">
-      <c r="E456" s="29"/>
+      <c r="E456" s="20"/>
     </row>
     <row r="457" spans="5:5">
-      <c r="E457" s="29"/>
+      <c r="E457" s="20"/>
     </row>
     <row r="458" spans="5:5">
-      <c r="E458" s="29"/>
+      <c r="E458" s="20"/>
     </row>
     <row r="459" spans="5:5">
-      <c r="E459" s="29"/>
+      <c r="E459" s="20"/>
     </row>
     <row r="460" spans="5:5">
-      <c r="E460" s="29"/>
+      <c r="E460" s="20"/>
     </row>
     <row r="461" spans="5:5">
-      <c r="E461" s="29"/>
+      <c r="E461" s="20"/>
     </row>
     <row r="462" spans="5:5">
-      <c r="E462" s="29"/>
+      <c r="E462" s="20"/>
     </row>
     <row r="463" spans="5:5">
-      <c r="E463" s="29"/>
+      <c r="E463" s="20"/>
     </row>
     <row r="464" spans="5:5">
-      <c r="E464" s="29"/>
+      <c r="E464" s="20"/>
     </row>
     <row r="465" spans="5:5">
-      <c r="E465" s="29"/>
+      <c r="E465" s="20"/>
     </row>
     <row r="466" spans="5:5">
-      <c r="E466" s="29"/>
+      <c r="E466" s="20"/>
     </row>
     <row r="467" spans="5:5">
-      <c r="E467" s="29"/>
+      <c r="E467" s="20"/>
     </row>
     <row r="468" spans="5:5">
-      <c r="E468" s="29"/>
+      <c r="E468" s="20"/>
     </row>
     <row r="469" spans="5:5">
-      <c r="E469" s="29"/>
+      <c r="E469" s="20"/>
     </row>
     <row r="470" spans="5:5">
-      <c r="E470" s="29"/>
+      <c r="E470" s="20"/>
     </row>
     <row r="471" spans="5:5">
-      <c r="E471" s="29"/>
+      <c r="E471" s="20"/>
     </row>
     <row r="472" spans="5:5">
-      <c r="E472" s="29"/>
+      <c r="E472" s="20"/>
     </row>
     <row r="473" spans="5:5">
-      <c r="E473" s="29"/>
+      <c r="E473" s="20"/>
     </row>
     <row r="474" spans="5:5">
-      <c r="E474" s="29"/>
+      <c r="E474" s="20"/>
     </row>
     <row r="475" spans="5:5">
-      <c r="E475" s="29"/>
+      <c r="E475" s="20"/>
     </row>
     <row r="476" spans="5:5">
-      <c r="E476" s="29"/>
+      <c r="E476" s="20"/>
     </row>
     <row r="477" spans="5:5">
-      <c r="E477" s="29"/>
+      <c r="E477" s="20"/>
     </row>
     <row r="478" spans="5:5">
-      <c r="E478" s="29"/>
+      <c r="E478" s="20"/>
     </row>
     <row r="479" spans="5:5">
-      <c r="E479" s="29"/>
+      <c r="E479" s="20"/>
     </row>
     <row r="480" spans="5:5">
-      <c r="E480" s="29"/>
+      <c r="E480" s="20"/>
     </row>
     <row r="481" spans="5:5">
-      <c r="E481" s="29"/>
+      <c r="E481" s="20"/>
     </row>
     <row r="482" spans="5:5">
-      <c r="E482" s="29"/>
+      <c r="E482" s="20"/>
     </row>
     <row r="483" spans="5:5">
-      <c r="E483" s="29"/>
+      <c r="E483" s="20"/>
     </row>
     <row r="484" spans="5:5">
-      <c r="E484" s="29"/>
+      <c r="E484" s="20"/>
     </row>
     <row r="485" spans="5:5">
-      <c r="E485" s="29"/>
+      <c r="E485" s="20"/>
     </row>
     <row r="486" spans="5:5">
-      <c r="E486" s="29"/>
+      <c r="E486" s="20"/>
     </row>
     <row r="487" spans="5:5">
-      <c r="E487" s="29"/>
+      <c r="E487" s="20"/>
     </row>
     <row r="488" spans="5:5">
-      <c r="E488" s="29"/>
+      <c r="E488" s="20"/>
     </row>
     <row r="489" spans="5:5">
-      <c r="E489" s="29"/>
+      <c r="E489" s="20"/>
     </row>
     <row r="490" spans="5:5">
-      <c r="E490" s="29"/>
+      <c r="E490" s="20"/>
     </row>
     <row r="491" spans="5:5">
-      <c r="E491" s="29"/>
+      <c r="E491" s="20"/>
     </row>
     <row r="492" spans="5:5">
-      <c r="E492" s="29"/>
+      <c r="E492" s="20"/>
     </row>
     <row r="493" spans="5:5">
-      <c r="E493" s="29"/>
+      <c r="E493" s="20"/>
     </row>
     <row r="494" spans="5:5">
-      <c r="E494" s="29"/>
+      <c r="E494" s="20"/>
     </row>
     <row r="495" spans="5:5">
-      <c r="E495" s="29"/>
+      <c r="E495" s="20"/>
     </row>
     <row r="496" spans="5:5">
-      <c r="E496" s="29"/>
+      <c r="E496" s="20"/>
     </row>
     <row r="497" spans="5:5">
-      <c r="E497" s="29"/>
+      <c r="E497" s="20"/>
     </row>
     <row r="498" spans="5:5">
-      <c r="E498" s="29"/>
+      <c r="E498" s="20"/>
     </row>
     <row r="499" spans="5:5">
-      <c r="E499" s="29"/>
+      <c r="E499" s="20"/>
     </row>
     <row r="500" spans="5:5">
-      <c r="E500" s="29"/>
+      <c r="E500" s="20"/>
     </row>
     <row r="501" spans="5:5">
-      <c r="E501" s="29"/>
+      <c r="E501" s="20"/>
     </row>
     <row r="502" spans="5:5">
-      <c r="E502" s="29"/>
+      <c r="E502" s="20"/>
     </row>
     <row r="503" spans="5:5">
-      <c r="E503" s="29"/>
+      <c r="E503" s="20"/>
     </row>
     <row r="504" spans="5:5">
-      <c r="E504" s="29"/>
+      <c r="E504" s="20"/>
     </row>
     <row r="505" spans="5:5">
-      <c r="E505" s="29"/>
+      <c r="E505" s="20"/>
     </row>
     <row r="506" spans="5:5">
-      <c r="E506" s="29"/>
+      <c r="E506" s="20"/>
     </row>
     <row r="507" spans="5:5">
-      <c r="E507" s="29"/>
+      <c r="E507" s="20"/>
     </row>
     <row r="508" spans="5:5">
-      <c r="E508" s="29"/>
+      <c r="E508" s="20"/>
     </row>
     <row r="509" spans="5:5">
-      <c r="E509" s="29"/>
+      <c r="E509" s="20"/>
     </row>
     <row r="510" spans="5:5">
-      <c r="E510" s="29"/>
+      <c r="E510" s="20"/>
     </row>
     <row r="511" spans="5:5">
-      <c r="E511" s="29"/>
+      <c r="E511" s="20"/>
     </row>
     <row r="512" spans="5:5">
-      <c r="E512" s="29"/>
+      <c r="E512" s="20"/>
     </row>
     <row r="513" spans="5:5">
-      <c r="E513" s="29"/>
+      <c r="E513" s="20"/>
     </row>
     <row r="514" spans="5:5">
-      <c r="E514" s="29"/>
+      <c r="E514" s="20"/>
     </row>
     <row r="515" spans="5:5">
-      <c r="E515" s="29"/>
+      <c r="E515" s="20"/>
     </row>
     <row r="516" spans="5:5">
-      <c r="E516" s="29"/>
+      <c r="E516" s="20"/>
     </row>
     <row r="517" spans="5:5">
-      <c r="E517" s="29"/>
+      <c r="E517" s="20"/>
     </row>
     <row r="518" spans="5:5">
-      <c r="E518" s="29"/>
+      <c r="E518" s="20"/>
     </row>
     <row r="519" spans="5:5">
-      <c r="E519" s="29"/>
+      <c r="E519" s="20"/>
     </row>
     <row r="520" spans="5:5">
-      <c r="E520" s="29"/>
+      <c r="E520" s="20"/>
     </row>
     <row r="521" spans="5:5">
-      <c r="E521" s="29"/>
+      <c r="E521" s="20"/>
     </row>
     <row r="522" spans="5:5">
-      <c r="E522" s="29"/>
+      <c r="E522" s="20"/>
     </row>
     <row r="523" spans="5:5">
-      <c r="E523" s="29"/>
+      <c r="E523" s="20"/>
     </row>
     <row r="524" spans="5:5">
-      <c r="E524" s="29"/>
+      <c r="E524" s="20"/>
     </row>
     <row r="525" spans="5:5">
-      <c r="E525" s="29"/>
+      <c r="E525" s="20"/>
     </row>
     <row r="526" spans="5:5">
-      <c r="E526" s="29"/>
+      <c r="E526" s="20"/>
     </row>
     <row r="527" spans="5:5">
-      <c r="E527" s="29"/>
+      <c r="E527" s="20"/>
     </row>
     <row r="528" spans="5:5">
-      <c r="E528" s="29"/>
+      <c r="E528" s="20"/>
     </row>
     <row r="529" spans="5:5">
-      <c r="E529" s="29"/>
+      <c r="E529" s="20"/>
     </row>
     <row r="530" spans="5:5">
-      <c r="E530" s="29"/>
+      <c r="E530" s="20"/>
     </row>
     <row r="531" spans="5:5">
-      <c r="E531" s="29"/>
+      <c r="E531" s="20"/>
     </row>
     <row r="532" spans="5:5">
-      <c r="E532" s="29"/>
+      <c r="E532" s="20"/>
     </row>
     <row r="533" spans="5:5">
-      <c r="E533" s="29"/>
+      <c r="E533" s="20"/>
     </row>
     <row r="534" spans="5:5">
-      <c r="E534" s="29"/>
+      <c r="E534" s="20"/>
     </row>
     <row r="535" spans="5:5">
-      <c r="E535" s="29"/>
+      <c r="E535" s="20"/>
     </row>
     <row r="536" spans="5:5">
-      <c r="E536" s="29"/>
+      <c r="E536" s="20"/>
     </row>
     <row r="537" spans="5:5">
-      <c r="E537" s="29"/>
+      <c r="E537" s="20"/>
     </row>
     <row r="538" spans="5:5">
-      <c r="E538" s="29"/>
+      <c r="E538" s="20"/>
     </row>
     <row r="539" spans="5:5">
-      <c r="E539" s="29"/>
+      <c r="E539" s="20"/>
     </row>
     <row r="540" spans="5:5">
-      <c r="E540" s="29"/>
+      <c r="E540" s="20"/>
     </row>
     <row r="541" spans="5:5">
-      <c r="E541" s="29"/>
+      <c r="E541" s="20"/>
     </row>
     <row r="542" spans="5:5">
-      <c r="E542" s="29"/>
+      <c r="E542" s="20"/>
     </row>
     <row r="543" spans="5:5">
-      <c r="E543" s="29"/>
+      <c r="E543" s="20"/>
     </row>
     <row r="544" spans="5:5">
-      <c r="E544" s="29"/>
+      <c r="E544" s="20"/>
     </row>
     <row r="545" spans="5:5">
-      <c r="E545" s="29"/>
+      <c r="E545" s="20"/>
     </row>
     <row r="546" spans="5:5">
-      <c r="E546" s="29"/>
+      <c r="E546" s="20"/>
     </row>
     <row r="547" spans="5:5">
-      <c r="E547" s="29"/>
+      <c r="E547" s="20"/>
     </row>
     <row r="548" spans="5:5">
-      <c r="E548" s="29"/>
+      <c r="E548" s="20"/>
     </row>
     <row r="549" spans="5:5">
-      <c r="E549" s="29"/>
+      <c r="E549" s="20"/>
     </row>
     <row r="550" spans="5:5">
-      <c r="E550" s="29"/>
+      <c r="E550" s="20"/>
     </row>
     <row r="551" spans="5:5">
-      <c r="E551" s="29"/>
+      <c r="E551" s="20"/>
     </row>
     <row r="552" spans="5:5">
-      <c r="E552" s="29"/>
+      <c r="E552" s="20"/>
     </row>
     <row r="553" spans="5:5">
-      <c r="E553" s="29"/>
+      <c r="E553" s="20"/>
     </row>
     <row r="554" spans="5:5">
-      <c r="E554" s="29"/>
+      <c r="E554" s="20"/>
     </row>
     <row r="555" spans="5:5">
-      <c r="E555" s="29"/>
+      <c r="E555" s="20"/>
     </row>
     <row r="556" spans="5:5">
-      <c r="E556" s="29"/>
+      <c r="E556" s="20"/>
     </row>
     <row r="557" spans="5:5">
-      <c r="E557" s="29"/>
+      <c r="E557" s="20"/>
     </row>
     <row r="558" spans="5:5">
-      <c r="E558" s="29"/>
+      <c r="E558" s="20"/>
     </row>
     <row r="559" spans="5:5">
-      <c r="E559" s="29"/>
+      <c r="E559" s="20"/>
     </row>
     <row r="560" spans="5:5">
-      <c r="E560" s="29"/>
+      <c r="E560" s="20"/>
     </row>
     <row r="561" spans="5:5">
-      <c r="E561" s="29"/>
+      <c r="E561" s="20"/>
     </row>
     <row r="562" spans="5:5">
-      <c r="E562" s="29"/>
+      <c r="E562" s="20"/>
     </row>
     <row r="563" spans="5:5">
-      <c r="E563" s="29"/>
+      <c r="E563" s="20"/>
     </row>
     <row r="564" spans="5:5">
-      <c r="E564" s="29"/>
+      <c r="E564" s="20"/>
     </row>
     <row r="565" spans="5:5">
-      <c r="E565" s="29"/>
+      <c r="E565" s="20"/>
     </row>
     <row r="566" spans="5:5">
-      <c r="E566" s="29"/>
+      <c r="E566" s="20"/>
     </row>
     <row r="567" spans="5:5">
-      <c r="E567" s="29"/>
+      <c r="E567" s="20"/>
     </row>
     <row r="568" spans="5:5">
-      <c r="E568" s="29"/>
+      <c r="E568" s="20"/>
     </row>
     <row r="569" spans="5:5">
-      <c r="E569" s="29"/>
+      <c r="E569" s="20"/>
     </row>
     <row r="570" spans="5:5">
-      <c r="E570" s="29"/>
+      <c r="E570" s="20"/>
     </row>
     <row r="571" spans="5:5">
-      <c r="E571" s="29"/>
+      <c r="E571" s="20"/>
     </row>
     <row r="572" spans="5:5">
-      <c r="E572" s="29"/>
+      <c r="E572" s="20"/>
     </row>
     <row r="573" spans="5:5">
-      <c r="E573" s="29"/>
+      <c r="E573" s="20"/>
     </row>
     <row r="574" spans="5:5">
-      <c r="E574" s="29"/>
-    </row>
-    <row r="575" spans="5:5">
-      <c r="E575" s="29"/>
-    </row>
-    <row r="576" spans="5:5">
-      <c r="E576" s="29"/>
-    </row>
-    <row r="577" spans="5:5">
-      <c r="E577" s="29"/>
-    </row>
-    <row r="578" spans="5:5">
-      <c r="E578" s="29"/>
-    </row>
-    <row r="579" spans="5:5">
-      <c r="E579" s="33"/>
+      <c r="E574" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B21"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3129,16 +3037,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A854E9-D7CB-4E3E-8E25-76AE19553A8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A22F02-E9BD-4A52-95AC-9BF7CE63C1B3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3146,5 +3051,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19A22F02-E9BD-4A52-95AC-9BF7CE63C1B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61A854E9-D7CB-4E3E-8E25-76AE19553A8F}"/>
 </file>